--- a/sofaplayer/Bundesliga/Bayer 04 Leverkusen_stats.xlsx
+++ b/sofaplayer/Bundesliga/Bayer 04 Leverkusen_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>2029648</v>
       </c>
       <c r="E2" t="n">
-        <v>6.7294117647059</v>
+        <v>6.7277777777778</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
         <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>701</v>
+        <v>732</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.557</v>
+        <v>3.6827</v>
       </c>
       <c r="L2" t="n">
-        <v>233.66666666667</v>
+        <v>244</v>
       </c>
       <c r="M2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>13.04347826087</v>
+        <v>11.538461538462</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.41792818</v>
+        <v>0.42254105</v>
       </c>
       <c r="AB2" t="n">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1113,22 +1113,22 @@
         <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AF2" t="n">
-        <v>84.40366972477101</v>
+        <v>84.955752212389</v>
       </c>
       <c r="AG2" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI2" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AJ2" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
@@ -1146,13 +1146,13 @@
         <v>2</v>
       </c>
       <c r="AP2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ2" t="n">
         <v>3</v>
       </c>
       <c r="AR2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -1179,22 +1179,22 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA2" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BB2" t="n">
-        <v>43.529411764706</v>
+        <v>44.318181818182</v>
       </c>
       <c r="BC2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BD2" t="n">
-        <v>41.666666666667</v>
+        <v>44</v>
       </c>
       <c r="BE2" t="n">
         <v>17</v>
       </c>
       <c r="BF2" t="n">
-        <v>45.945945945946</v>
+        <v>44.736842105263</v>
       </c>
       <c r="BG2" t="n">
         <v>50</v>
@@ -1203,7 +1203,7 @@
         <v>19</v>
       </c>
       <c r="BI2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BJ2" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>114.4</v>
+        <v>121.1</v>
       </c>
       <c r="BR2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS2" t="n">
         <v>4</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CA2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CB2" t="n">
         <v>9</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="CV2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="DB2" t="n">
-        <v>40</v>
+        <v>33.333333333333</v>
       </c>
       <c r="DC2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="DG2" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,40 +1391,40 @@
         <v>280609</v>
       </c>
       <c r="E3" t="n">
-        <v>6.83125</v>
+        <v>6.8647058823529</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>1135</v>
+        <v>1194</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K3" t="n">
-        <v>7.7402</v>
+        <v>8.4336</v>
       </c>
       <c r="L3" t="n">
-        <v>189.16666666667</v>
+        <v>170.57142857143</v>
       </c>
       <c r="M3" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P3" t="n">
-        <v>19.354838709677</v>
+        <v>20.588235294118</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
@@ -1436,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -1457,10 +1457,10 @@
         <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.05258565</v>
+        <v>2.06746855</v>
       </c>
       <c r="AB3" t="n">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="AC3" t="n">
         <v>3</v>
@@ -1469,22 +1469,22 @@
         <v>5</v>
       </c>
       <c r="AE3" t="n">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="AF3" t="n">
-        <v>80.334728033473</v>
+        <v>79.457364341085</v>
       </c>
       <c r="AG3" t="n">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="AH3" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AI3" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AJ3" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="n">
         <v>4</v>
@@ -1505,16 +1505,16 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="n">
         <v>14</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>13</v>
       </c>
       <c r="AU3" t="n">
         <v>7</v>
@@ -1535,28 +1535,28 @@
         <v>31.25</v>
       </c>
       <c r="BA3" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BB3" t="n">
-        <v>53.398058252427</v>
+        <v>52.830188679245</v>
       </c>
       <c r="BC3" t="n">
         <v>17</v>
       </c>
       <c r="BD3" t="n">
-        <v>39.53488372093</v>
+        <v>37.777777777778</v>
       </c>
       <c r="BE3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BF3" t="n">
-        <v>63.333333333333</v>
+        <v>63.934426229508</v>
       </c>
       <c r="BG3" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="BH3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI3" t="n">
         <v>10</v>
@@ -1583,22 +1583,22 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>109.3</v>
+        <v>116.7</v>
       </c>
       <c r="BR3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BT3" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BW3" t="n">
         <v>2</v>
@@ -1610,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="CA3" t="n">
         <v>5</v>
       </c>
       <c r="CB3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC3" t="n">
         <v>6</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="CV3" t="n">
         <v>22</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="DG3" t="n">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>142390</v>
       </c>
       <c r="E4" t="n">
-        <v>6.7941176470588</v>
+        <v>6.7833333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>866</v>
+        <v>884</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>1.5389</v>
       </c>
       <c r="L4" t="n">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="M4" t="n">
         <v>19</v>
@@ -1810,49 +1810,49 @@
         <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.60313524</v>
+        <v>1.61113527</v>
       </c>
       <c r="AB4" t="n">
-        <v>623</v>
+        <v>644</v>
       </c>
       <c r="AC4" t="n">
         <v>4</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="AF4" t="n">
-        <v>82.86937901498899</v>
+        <v>83.092783505155</v>
       </c>
       <c r="AG4" t="n">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="AH4" t="n">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="AI4" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AJ4" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AK4" t="n">
         <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>65.217391304348</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
         <v>2</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.090909090909101</v>
+        <v>8.695652173913</v>
       </c>
       <c r="AO4" t="n">
         <v>2</v>
@@ -1894,7 +1894,7 @@
         <v>31</v>
       </c>
       <c r="BB4" t="n">
-        <v>58.490566037736</v>
+        <v>57.407407407407</v>
       </c>
       <c r="BC4" t="n">
         <v>27</v>
@@ -1906,10 +1906,10 @@
         <v>4</v>
       </c>
       <c r="BF4" t="n">
-        <v>66.666666666667</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BG4" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="BH4" t="n">
         <v>4</v>
@@ -1939,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>115.5</v>
+        <v>122.1</v>
       </c>
       <c r="BR4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT4" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1975,10 +1975,10 @@
         <v>6</v>
       </c>
       <c r="CC4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CD4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CE4" t="n">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="CR4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CS4" t="n">
         <v>9</v>
       </c>
       <c r="CT4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CU4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CV4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="DA4" t="n">
         <v>9</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="DG4" t="n">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>846445</v>
       </c>
       <c r="E5" t="n">
-        <v>6.8545454545455</v>
+        <v>6.8083333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>1.3527</v>
       </c>
       <c r="L5" t="n">
-        <v>140.66666666667</v>
+        <v>144</v>
       </c>
       <c r="M5" t="n">
         <v>11</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.63576978</v>
+        <v>0.63810878</v>
       </c>
       <c r="AB5" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AC5" t="n">
         <v>2</v>
@@ -2181,22 +2181,22 @@
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AF5" t="n">
-        <v>86.06060606060601</v>
+        <v>85.798816568047</v>
       </c>
       <c r="AG5" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AH5" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AK5" t="n">
         <v>2</v>
@@ -2244,19 +2244,19 @@
         <v>4</v>
       </c>
       <c r="AZ5" t="n">
-        <v>50</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BA5" t="n">
         <v>26</v>
       </c>
       <c r="BB5" t="n">
-        <v>61.904761904762</v>
+        <v>60.46511627907</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
       </c>
       <c r="BD5" t="n">
-        <v>67.741935483871</v>
+        <v>65.625</v>
       </c>
       <c r="BE5" t="n">
         <v>5</v>
@@ -2265,7 +2265,7 @@
         <v>45.454545454545</v>
       </c>
       <c r="BG5" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BH5" t="n">
         <v>1</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>75.40000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="BR5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS5" t="n">
         <v>3</v>
       </c>
       <c r="BT5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2379,13 +2379,13 @@
         <v>6</v>
       </c>
       <c r="CS5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT5" t="n">
         <v>4</v>
       </c>
       <c r="CU5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CV5" t="n">
         <v>6</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="DG5" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="DH5" t="n">
         <v>1</v>
@@ -2815,16 +2815,16 @@
         <v>1407524</v>
       </c>
       <c r="E7" t="n">
-        <v>7.0642857142857</v>
+        <v>7.02</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>808</v>
+        <v>853</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -2836,7 +2836,7 @@
         <v>1.6292</v>
       </c>
       <c r="L7" t="n">
-        <v>404</v>
+        <v>426.5</v>
       </c>
       <c r="M7" t="n">
         <v>21</v>
@@ -2881,64 +2881,64 @@
         <v>2</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.34048125</v>
+        <v>1.36198085</v>
       </c>
       <c r="AB7" t="n">
-        <v>676</v>
+        <v>711</v>
       </c>
       <c r="AC7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="AF7" t="n">
-        <v>89.53974895397501</v>
+        <v>88.84462151394401</v>
       </c>
       <c r="AG7" t="n">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="AH7" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AI7" t="n">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="AJ7" t="n">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AK7" t="n">
         <v>10</v>
       </c>
       <c r="AL7" t="n">
-        <v>58.823529411765</v>
+        <v>52.631578947368</v>
       </c>
       <c r="AM7" t="n">
         <v>3</v>
       </c>
       <c r="AN7" t="n">
-        <v>14.285714285714</v>
+        <v>12.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>3</v>
       </c>
       <c r="AR7" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AS7" t="n">
         <v>5</v>
       </c>
       <c r="AT7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU7" t="n">
         <v>6</v>
@@ -2953,31 +2953,31 @@
         <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ7" t="n">
-        <v>52.777777777778</v>
+        <v>51.282051282051</v>
       </c>
       <c r="BA7" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="BB7" t="n">
-        <v>56.862745098039</v>
+        <v>56.481481481481</v>
       </c>
       <c r="BC7" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BD7" t="n">
-        <v>60.43956043956</v>
+        <v>60</v>
       </c>
       <c r="BE7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF7" t="n">
-        <v>27.272727272727</v>
+        <v>30.769230769231</v>
       </c>
       <c r="BG7" t="n">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="BH7" t="n">
         <v>7</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>98.90000000000001</v>
+        <v>105.3</v>
       </c>
       <c r="BR7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS7" t="n">
         <v>4</v>
       </c>
       <c r="BT7" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3088,19 +3088,19 @@
         <v>0</v>
       </c>
       <c r="CR7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS7" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="CT7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="CU7" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="CV7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3112,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="DA7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DB7" t="n">
-        <v>50</v>
+        <v>52.631578947368</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="DG7" t="n">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>177177</v>
       </c>
       <c r="E9" t="n">
-        <v>7.225</v>
+        <v>7.1882352941176</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" t="n">
-        <v>1372</v>
+        <v>1444</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
@@ -3545,13 +3545,13 @@
         <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.0332</v>
+        <v>4.0802</v>
       </c>
       <c r="L9" t="n">
-        <v>274.4</v>
+        <v>288.8</v>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N9" t="n">
         <v>13</v>
@@ -3560,7 +3560,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>16.666666666667</v>
+        <v>16.129032258065</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
@@ -3593,10 +3593,10 @@
         <v>5</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.617073</v>
+        <v>3.745153</v>
       </c>
       <c r="AB9" t="n">
-        <v>1408</v>
+        <v>1502</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
@@ -3605,34 +3605,34 @@
         <v>33</v>
       </c>
       <c r="AE9" t="n">
-        <v>896</v>
+        <v>964</v>
       </c>
       <c r="AF9" t="n">
-        <v>87.671232876712</v>
+        <v>87.795992714026</v>
       </c>
       <c r="AG9" t="n">
-        <v>1022</v>
+        <v>1098</v>
       </c>
       <c r="AH9" t="n">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="AI9" t="n">
-        <v>499</v>
+        <v>543</v>
       </c>
       <c r="AJ9" t="n">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="AK9" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>48.4375</v>
+        <v>50.746268656716</v>
       </c>
       <c r="AM9" t="n">
         <v>14</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>19.178082191781</v>
       </c>
       <c r="AO9" t="n">
         <v>11</v>
@@ -3641,16 +3641,16 @@
         <v>25</v>
       </c>
       <c r="AQ9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR9" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AS9" t="n">
         <v>12</v>
       </c>
       <c r="AT9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AU9" t="n">
         <v>6</v>
@@ -3668,19 +3668,19 @@
         <v>16</v>
       </c>
       <c r="AZ9" t="n">
-        <v>38.095238095238</v>
+        <v>34.782608695652</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BB9" t="n">
-        <v>48.201438848921</v>
+        <v>47.222222222222</v>
       </c>
       <c r="BC9" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BD9" t="n">
-        <v>52.991452991453</v>
+        <v>51.639344262295</v>
       </c>
       <c r="BE9" t="n">
         <v>5</v>
@@ -3689,13 +3689,13 @@
         <v>22.727272727273</v>
       </c>
       <c r="BG9" t="n">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="BH9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BJ9" t="n">
         <v>3</v>
@@ -3719,22 +3719,22 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>115.6</v>
+        <v>122.2</v>
       </c>
       <c r="BR9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS9" t="n">
         <v>10</v>
       </c>
       <c r="BT9" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BW9" t="n">
         <v>2</v>
@@ -3746,7 +3746,7 @@
         <v>9</v>
       </c>
       <c r="BZ9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CA9" t="n">
         <v>21</v>
@@ -3755,10 +3755,10 @@
         <v>10</v>
       </c>
       <c r="CC9" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="CD9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3803,13 +3803,13 @@
         <v>33</v>
       </c>
       <c r="CS9" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="CT9" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="CU9" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="CV9" t="n">
         <v>17</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="DA9" t="n">
         <v>13</v>
@@ -3842,16 +3842,16 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="DG9" t="n">
-        <v>578</v>
+        <v>629</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
       </c>
       <c r="DI9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DJ9" t="n">
         <v>2163161</v>
@@ -3883,16 +3883,16 @@
         <v>822600</v>
       </c>
       <c r="E10" t="n">
-        <v>6.58</v>
+        <v>6.6666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.11058563</v>
+        <v>0.17539823</v>
       </c>
       <c r="AB10" t="n">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -3961,28 +3961,28 @@
         <v>2</v>
       </c>
       <c r="AE10" t="n">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="AF10" t="n">
-        <v>85.840707964602</v>
+        <v>90.869565217391</v>
       </c>
       <c r="AG10" t="n">
-        <v>113</v>
+        <v>230</v>
       </c>
       <c r="AH10" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="n">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP10" t="n">
         <v>3</v>
@@ -4000,91 +4000,91 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AS10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>28</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
         <v>3</v>
       </c>
-      <c r="AT10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA10" t="n">
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR10" t="n">
         <v>6</v>
       </c>
-      <c r="BB10" t="n">
-        <v>54.545454545455</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>54.545454545455</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" t="n">
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
         <v>21</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>5</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>16</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4108,64 +4108,64 @@
         <v>3</v>
       </c>
       <c r="CB10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC10" t="n">
+        <v>6</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>4</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS10" t="n">
         <v>3</v>
       </c>
-      <c r="CD10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR10" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS10" t="n">
-        <v>2</v>
-      </c>
       <c r="CT10" t="n">
         <v>0</v>
       </c>
       <c r="CU10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CV10" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="DA10" t="n">
         <v>1</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="DG10" t="n">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>975798</v>
       </c>
       <c r="E12" t="n">
-        <v>7.05</v>
+        <v>7.0176470588235</v>
       </c>
       <c r="F12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" t="n">
         <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>1203</v>
+        <v>1248</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -4613,13 +4613,13 @@
         <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5115</v>
+        <v>2.6221</v>
       </c>
       <c r="L12" t="n">
-        <v>300.75</v>
+        <v>312</v>
       </c>
       <c r="M12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N12" t="n">
         <v>5</v>
@@ -4628,7 +4628,7 @@
         <v>3</v>
       </c>
       <c r="P12" t="n">
-        <v>18.181818181818</v>
+        <v>16.666666666667</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -4661,40 +4661,40 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.03530651</v>
+        <v>2.08330691</v>
       </c>
       <c r="AB12" t="n">
-        <v>817</v>
+        <v>862</v>
       </c>
       <c r="AC12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="AF12" t="n">
-        <v>85.357142857143</v>
+        <v>85.06711409396</v>
       </c>
       <c r="AG12" t="n">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="AH12" t="n">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="AI12" t="n">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="AJ12" t="n">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AK12" t="n">
         <v>10</v>
       </c>
       <c r="AL12" t="n">
-        <v>62.5</v>
+        <v>58.823529411765</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
@@ -4703,7 +4703,7 @@
         <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
         <v>28</v>
@@ -4712,13 +4712,13 @@
         <v>11</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU12" t="n">
         <v>6</v>
@@ -4736,34 +4736,34 @@
         <v>9</v>
       </c>
       <c r="AZ12" t="n">
-        <v>39.130434782609</v>
+        <v>37.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BB12" t="n">
-        <v>55.31914893617</v>
+        <v>55.555555555556</v>
       </c>
       <c r="BC12" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BD12" t="n">
-        <v>52.212389380531</v>
+        <v>52.173913043478</v>
       </c>
       <c r="BE12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BF12" t="n">
-        <v>67.857142857143</v>
+        <v>68.965517241379</v>
       </c>
       <c r="BG12" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="BH12" t="n">
         <v>13</v>
       </c>
       <c r="BI12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BJ12" t="n">
         <v>2</v>
@@ -4787,22 +4787,22 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>112.8</v>
+        <v>119.3</v>
       </c>
       <c r="BR12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS12" t="n">
         <v>4</v>
       </c>
       <c r="BT12" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
@@ -4814,10 +4814,10 @@
         <v>0</v>
       </c>
       <c r="BZ12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CA12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CB12" t="n">
         <v>19</v>
@@ -4868,16 +4868,16 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CS12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CT12" t="n">
         <v>10</v>
       </c>
       <c r="CU12" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CV12" t="n">
         <v>9</v>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DA12" t="n">
         <v>23</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="DG12" t="n">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4951,40 +4951,40 @@
         <v>1119502</v>
       </c>
       <c r="E13" t="n">
-        <v>6.7666666666667</v>
+        <v>6.9</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>1033</v>
+        <v>1123</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.6996</v>
+        <v>2.7279</v>
       </c>
       <c r="L13" t="n">
-        <v>258.25</v>
+        <v>224.6</v>
       </c>
       <c r="M13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
         <v>4</v>
       </c>
       <c r="P13" t="n">
-        <v>18.181818181818</v>
+        <v>21.739130434783</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -4999,13 +4999,13 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
         <v>3</v>
@@ -5014,37 +5014,37 @@
         <v>3</v>
       </c>
       <c r="Z13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3.25058746</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>638</v>
+      </c>
+      <c r="AC13" t="n">
         <v>3</v>
       </c>
-      <c r="AA13" t="n">
-        <v>2.56833646</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>581</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>2</v>
-      </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="AF13" t="n">
-        <v>85.18518518518501</v>
+        <v>84.578313253012</v>
       </c>
       <c r="AG13" t="n">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="AH13" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AJ13" t="n">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="AK13" t="n">
         <v>5</v>
@@ -5062,19 +5062,19 @@
         <v>6</v>
       </c>
       <c r="AP13" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AQ13" t="n">
         <v>3</v>
       </c>
       <c r="AR13" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AS13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT13" t="n">
         <v>9</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>8</v>
       </c>
       <c r="AU13" t="n">
         <v>7</v>
@@ -5089,37 +5089,37 @@
         <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>39.473684210526</v>
+        <v>38.095238095238</v>
       </c>
       <c r="BA13" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="BB13" t="n">
-        <v>34.615384615385</v>
+        <v>36.440677966102</v>
       </c>
       <c r="BC13" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="BD13" t="n">
-        <v>38.04347826087</v>
+        <v>40</v>
       </c>
       <c r="BE13" t="n">
         <v>1</v>
       </c>
       <c r="BF13" t="n">
-        <v>8.3333333333333</v>
+        <v>7.6923076923077</v>
       </c>
       <c r="BG13" t="n">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="BH13" t="n">
         <v>3</v>
       </c>
       <c r="BI13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BJ13" t="n">
         <v>3</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO13" t="n">
         <v>15</v>
@@ -5143,16 +5143,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>121.8</v>
+        <v>131.1</v>
       </c>
       <c r="BR13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BT13" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5173,16 +5173,16 @@
         <v>13</v>
       </c>
       <c r="CA13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CB13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CC13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CD13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5224,19 +5224,19 @@
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CS13" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="CT13" t="n">
         <v>10</v>
       </c>
       <c r="CU13" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="CV13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -5251,10 +5251,10 @@
         <v>9</v>
       </c>
       <c r="DA13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="DB13" t="n">
-        <v>37.5</v>
+        <v>54.545454545455</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="DG13" t="n">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5307,16 +5307,16 @@
         <v>796047</v>
       </c>
       <c r="E14" t="n">
-        <v>7.365</v>
+        <v>7.3761904761905</v>
       </c>
       <c r="F14" t="n">
+        <v>21</v>
+      </c>
+      <c r="G14" t="n">
         <v>20</v>
       </c>
-      <c r="G14" t="n">
-        <v>19</v>
-      </c>
       <c r="H14" t="n">
-        <v>1663</v>
+        <v>1753</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
@@ -5328,7 +5328,7 @@
         <v>1.4142</v>
       </c>
       <c r="L14" t="n">
-        <v>1663</v>
+        <v>1753</v>
       </c>
       <c r="M14" t="n">
         <v>18</v>
@@ -5370,49 +5370,49 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.69933481</v>
+        <v>4.00078381</v>
       </c>
       <c r="AB14" t="n">
-        <v>2203</v>
+        <v>2355</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AE14" t="n">
-        <v>1845</v>
+        <v>1968</v>
       </c>
       <c r="AF14" t="n">
-        <v>93.654822335025</v>
+        <v>93.402942572378</v>
       </c>
       <c r="AG14" t="n">
-        <v>1970</v>
+        <v>2107</v>
       </c>
       <c r="AH14" t="n">
-        <v>867</v>
+        <v>919</v>
       </c>
       <c r="AI14" t="n">
-        <v>978</v>
+        <v>1049</v>
       </c>
       <c r="AJ14" t="n">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="AK14" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AL14" t="n">
-        <v>76.865671641791</v>
+        <v>75.88652482269499</v>
       </c>
       <c r="AM14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AN14" t="n">
-        <v>29.333333333333</v>
+        <v>29.268292682927</v>
       </c>
       <c r="AO14" t="n">
         <v>15</v>
@@ -5421,13 +5421,13 @@
         <v>14</v>
       </c>
       <c r="AQ14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR14" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT14" t="n">
         <v>21</v>
@@ -5445,22 +5445,22 @@
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ14" t="n">
-        <v>30</v>
+        <v>36.363636363636</v>
       </c>
       <c r="BA14" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BB14" t="n">
-        <v>54.838709677419</v>
+        <v>54.411764705882</v>
       </c>
       <c r="BC14" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="BD14" t="n">
-        <v>56</v>
+        <v>55.357142857143</v>
       </c>
       <c r="BE14" t="n">
         <v>6</v>
@@ -5469,16 +5469,16 @@
         <v>50</v>
       </c>
       <c r="BG14" t="n">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="BH14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK14" t="n">
         <v>3</v>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO14" t="n">
         <v>25</v>
@@ -5499,16 +5499,16 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>147.3</v>
+        <v>154.9</v>
       </c>
       <c r="BR14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT14" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5532,13 +5532,13 @@
         <v>15</v>
       </c>
       <c r="CB14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC14" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="CD14" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
@@ -5580,16 +5580,16 @@
         <v>0</v>
       </c>
       <c r="CR14" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="CS14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CT14" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="CU14" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="CV14" t="n">
         <v>6</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="DA14" t="n">
         <v>10</v>
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>909</v>
+        <v>965</v>
       </c>
       <c r="DG14" t="n">
-        <v>1061</v>
+        <v>1142</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>168903</v>
       </c>
       <c r="E15" t="n">
-        <v>6.8388888888889</v>
+        <v>6.8421052631579</v>
       </c>
       <c r="F15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H15" t="n">
-        <v>1408</v>
+        <v>1498</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -5684,7 +5684,7 @@
         <v>0.359</v>
       </c>
       <c r="L15" t="n">
-        <v>1408</v>
+        <v>1498</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
@@ -5729,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.97058521</v>
+        <v>0.9878190100000001</v>
       </c>
       <c r="AB15" t="n">
-        <v>1207</v>
+        <v>1315</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -5741,28 +5741,28 @@
         <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>925</v>
+        <v>1017</v>
       </c>
       <c r="AF15" t="n">
-        <v>89.805825242718</v>
+        <v>89.84098939929299</v>
       </c>
       <c r="AG15" t="n">
-        <v>1030</v>
+        <v>1132</v>
       </c>
       <c r="AH15" t="n">
-        <v>498</v>
+        <v>563</v>
       </c>
       <c r="AI15" t="n">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="AJ15" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AK15" t="n">
         <v>48</v>
       </c>
       <c r="AL15" t="n">
-        <v>53.932584269663</v>
+        <v>50.526315789474</v>
       </c>
       <c r="AM15" t="n">
         <v>2</v>
@@ -5771,7 +5771,7 @@
         <v>33.333333333333</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
         <v>30</v>
@@ -5780,13 +5780,13 @@
         <v>3</v>
       </c>
       <c r="AR15" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AU15" t="n">
         <v>2</v>
@@ -5810,13 +5810,13 @@
         <v>64</v>
       </c>
       <c r="BB15" t="n">
-        <v>59.81308411215</v>
+        <v>59.259259259259</v>
       </c>
       <c r="BC15" t="n">
         <v>40</v>
       </c>
       <c r="BD15" t="n">
-        <v>57.142857142857</v>
+        <v>56.338028169014</v>
       </c>
       <c r="BE15" t="n">
         <v>24</v>
@@ -5825,10 +5825,10 @@
         <v>64.864864864865</v>
       </c>
       <c r="BG15" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="BH15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BI15" t="n">
         <v>10</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="BN15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO15" t="n">
         <v>25</v>
@@ -5855,16 +5855,16 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>123.1</v>
+        <v>130</v>
       </c>
       <c r="BR15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS15" t="n">
         <v>1</v>
       </c>
       <c r="BT15" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5891,10 +5891,10 @@
         <v>4</v>
       </c>
       <c r="CC15" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="CD15" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5945,7 +5945,7 @@
         <v>6</v>
       </c>
       <c r="CU15" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CV15" t="n">
         <v>13</v>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="DA15" t="n">
         <v>19</v>
@@ -5978,16 +5978,16 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>528</v>
+        <v>598</v>
       </c>
       <c r="DG15" t="n">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="DH15" t="n">
         <v>1</v>
       </c>
       <c r="DI15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="DJ15" t="n">
         <v>2163191</v>
@@ -6375,16 +6375,16 @@
         <v>255239</v>
       </c>
       <c r="E17" t="n">
-        <v>6.9428571428571</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>0.4682</v>
       </c>
       <c r="L17" t="n">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
@@ -6438,49 +6438,49 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.73261507</v>
+        <v>1.05740907</v>
       </c>
       <c r="AB17" t="n">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="AC17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="AF17" t="n">
-        <v>87.28813559322001</v>
+        <v>86.754966887417</v>
       </c>
       <c r="AG17" t="n">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="AH17" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="AJ17" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AK17" t="n">
         <v>2</v>
       </c>
       <c r="AL17" t="n">
-        <v>66.666666666667</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO17" t="n">
         <v>2</v>
@@ -6489,16 +6489,16 @@
         <v>6</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AS17" t="n">
         <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -6519,34 +6519,34 @@
         <v>0</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>56.666666666667</v>
+        <v>54.545454545455</v>
       </c>
       <c r="BC17" t="n">
         <v>14</v>
       </c>
       <c r="BD17" t="n">
-        <v>56</v>
+        <v>51.851851851852</v>
       </c>
       <c r="BE17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF17" t="n">
-        <v>60</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BG17" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="BH17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI17" t="n">
         <v>8</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK17" t="n">
         <v>2</v>
@@ -6567,16 +6567,16 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>48.6</v>
+        <v>56</v>
       </c>
       <c r="BR17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT17" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6603,10 +6603,10 @@
         <v>5</v>
       </c>
       <c r="CC17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CD17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6648,16 +6648,16 @@
         <v>0</v>
       </c>
       <c r="CR17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CS17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CT17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CU17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CV17" t="n">
         <v>2</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DA17" t="n">
         <v>4</v>
@@ -6690,16 +6690,16 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="DG17" t="n">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DJ17" t="n">
         <v>2257706</v>
@@ -6731,59 +6731,59 @@
         <v>883262</v>
       </c>
       <c r="E18" t="n">
-        <v>7.2375</v>
+        <v>7.3352941176471</v>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>1406</v>
+        <v>1496</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
       </c>
       <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.4281</v>
+      </c>
+      <c r="L18" t="n">
+        <v>374</v>
+      </c>
+      <c r="M18" t="n">
+        <v>18</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>22.222222222222</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>3</v>
       </c>
-      <c r="K18" t="n">
-        <v>1.2303</v>
-      </c>
-      <c r="L18" t="n">
-        <v>468.66666666667</v>
-      </c>
-      <c r="M18" t="n">
-        <v>17</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>17.647058823529</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2</v>
-      </c>
       <c r="W18" t="n">
         <v>1</v>
       </c>
@@ -6797,10 +6797,10 @@
         <v>2</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.63209472</v>
+        <v>0.67841702</v>
       </c>
       <c r="AB18" t="n">
-        <v>1606</v>
+        <v>1744</v>
       </c>
       <c r="AC18" t="n">
         <v>2</v>
@@ -6809,37 +6809,37 @@
         <v>7</v>
       </c>
       <c r="AE18" t="n">
-        <v>1278</v>
+        <v>1396</v>
       </c>
       <c r="AF18" t="n">
-        <v>91.61290322580599</v>
+        <v>91.842105263158</v>
       </c>
       <c r="AG18" t="n">
-        <v>1395</v>
+        <v>1520</v>
       </c>
       <c r="AH18" t="n">
-        <v>755</v>
+        <v>808</v>
       </c>
       <c r="AI18" t="n">
-        <v>523</v>
+        <v>588</v>
       </c>
       <c r="AJ18" t="n">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="AK18" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="AL18" t="n">
-        <v>41.592920353982</v>
+        <v>44.961240310078</v>
       </c>
       <c r="AM18" t="n">
         <v>2</v>
       </c>
       <c r="AN18" t="n">
-        <v>40</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AO18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP18" t="n">
         <v>17</v>
@@ -6848,13 +6848,13 @@
         <v>1</v>
       </c>
       <c r="AR18" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AS18" t="n">
         <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="AU18" t="n">
         <v>3</v>
@@ -6869,34 +6869,34 @@
         <v>0</v>
       </c>
       <c r="AY18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ18" t="n">
-        <v>71.428571428571</v>
+        <v>75</v>
       </c>
       <c r="BA18" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="BB18" t="n">
-        <v>62.068965517241</v>
+        <v>62.365591397849</v>
       </c>
       <c r="BC18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD18" t="n">
-        <v>59.459459459459</v>
+        <v>58.974358974359</v>
       </c>
       <c r="BE18" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BF18" t="n">
-        <v>64</v>
+        <v>64.81481481481499</v>
       </c>
       <c r="BG18" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="BH18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BI18" t="n">
         <v>0</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="BN18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO18" t="n">
         <v>21</v>
@@ -6923,16 +6923,16 @@
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>115.8</v>
+        <v>124.7</v>
       </c>
       <c r="BR18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT18" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="BZ18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CA18" t="n">
         <v>7</v>
@@ -6959,10 +6959,10 @@
         <v>0</v>
       </c>
       <c r="CC18" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="CD18" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -7007,16 +7007,16 @@
         <v>7</v>
       </c>
       <c r="CS18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CT18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CU18" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CV18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="DA18" t="n">
         <v>10</v>
@@ -7046,13 +7046,13 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>796</v>
+        <v>852</v>
       </c>
       <c r="DG18" t="n">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="DH18" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="DI18" t="n">
         <v>10</v>
@@ -7087,40 +7087,40 @@
         <v>1003339</v>
       </c>
       <c r="E19" t="n">
-        <v>6.8411764705882</v>
+        <v>6.9166666666667</v>
       </c>
       <c r="F19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>1345</v>
+        <v>1435</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.8133</v>
       </c>
       <c r="L19" t="n">
-        <v>1345</v>
+        <v>717.5</v>
       </c>
       <c r="M19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" t="n">
         <v>5</v>
       </c>
-      <c r="N19" t="n">
-        <v>4</v>
-      </c>
       <c r="O19" t="n">
         <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>20</v>
+        <v>33.333333333333</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -7132,13 +7132,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -7153,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.73546379</v>
+        <v>0.76336669</v>
       </c>
       <c r="AB19" t="n">
-        <v>1229</v>
+        <v>1326</v>
       </c>
       <c r="AC19" t="n">
         <v>1</v>
@@ -7165,52 +7165,52 @@
         <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>909</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>90.089197224975</v>
+        <v>90.15639374425</v>
       </c>
       <c r="AG19" t="n">
-        <v>1009</v>
+        <v>1087</v>
       </c>
       <c r="AH19" t="n">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="AI19" t="n">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="AJ19" t="n">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL19" t="n">
-        <v>41.791044776119</v>
+        <v>42.253521126761</v>
       </c>
       <c r="AM19" t="n">
         <v>3</v>
       </c>
       <c r="AN19" t="n">
-        <v>23.076923076923</v>
+        <v>21.428571428571</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ19" t="n">
         <v>2</v>
       </c>
       <c r="AR19" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AS19" t="n">
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -7231,31 +7231,31 @@
         <v>63.157894736842</v>
       </c>
       <c r="BA19" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="BB19" t="n">
-        <v>59.433962264151</v>
+        <v>61.261261261261</v>
       </c>
       <c r="BC19" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="BD19" t="n">
-        <v>60.294117647059</v>
+        <v>62.5</v>
       </c>
       <c r="BE19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BF19" t="n">
-        <v>57.894736842105</v>
+        <v>58.974358974359</v>
       </c>
       <c r="BG19" t="n">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="BH19" t="n">
         <v>12</v>
       </c>
       <c r="BI19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BJ19" t="n">
         <v>1</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="BN19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO19" t="n">
         <v>19</v>
@@ -7279,16 +7279,16 @@
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>116.3</v>
+        <v>124.5</v>
       </c>
       <c r="BR19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT19" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="BZ19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CA19" t="n">
         <v>2</v>
@@ -7315,10 +7315,10 @@
         <v>8</v>
       </c>
       <c r="CC19" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="CD19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CE19" t="n">
         <v>0</v>
@@ -7366,7 +7366,7 @@
         <v>19</v>
       </c>
       <c r="CT19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CU19" t="n">
         <v>43</v>
@@ -7384,13 +7384,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="DA19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="DB19" t="n">
-        <v>86.666666666667</v>
+        <v>83.333333333333</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7402,10 +7402,10 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c r="DG19" t="n">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="DH19" t="n">
         <v>2</v>
@@ -7799,16 +7799,16 @@
         <v>1174761</v>
       </c>
       <c r="E21" t="n">
-        <v>6.6307692307692</v>
+        <v>6.6285714285714</v>
       </c>
       <c r="F21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" t="n">
         <v>11</v>
       </c>
       <c r="H21" t="n">
-        <v>911</v>
+        <v>942</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7820,7 +7820,7 @@
         <v>0.9189000000000001</v>
       </c>
       <c r="L21" t="n">
-        <v>911</v>
+        <v>942</v>
       </c>
       <c r="M21" t="n">
         <v>10</v>
@@ -7865,40 +7865,40 @@
         <v>3</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.32541975</v>
+        <v>1.34201805</v>
       </c>
       <c r="AB21" t="n">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="AC21" t="n">
         <v>2</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="AF21" t="n">
-        <v>83.37874659400499</v>
+        <v>83.819628647215</v>
       </c>
       <c r="AG21" t="n">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="AH21" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AI21" t="n">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="AJ21" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AK21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL21" t="n">
-        <v>33.333333333333</v>
+        <v>35.483870967742</v>
       </c>
       <c r="AM21" t="n">
         <v>7</v>
@@ -7916,7 +7916,7 @@
         <v>6</v>
       </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AS21" t="n">
         <v>4</v>
@@ -7946,13 +7946,13 @@
         <v>52</v>
       </c>
       <c r="BB21" t="n">
-        <v>44.444444444444</v>
+        <v>43.697478991597</v>
       </c>
       <c r="BC21" t="n">
         <v>38</v>
       </c>
       <c r="BD21" t="n">
-        <v>39.583333333333</v>
+        <v>38.775510204082</v>
       </c>
       <c r="BE21" t="n">
         <v>14</v>
@@ -7961,10 +7961,10 @@
         <v>66.666666666667</v>
       </c>
       <c r="BG21" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BH21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BI21" t="n">
         <v>8</v>
@@ -7991,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>86.2</v>
+        <v>92.8</v>
       </c>
       <c r="BR21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS21" t="n">
         <v>4</v>
@@ -8024,7 +8024,7 @@
         <v>4</v>
       </c>
       <c r="CB21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CC21" t="n">
         <v>19</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="CR21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CS21" t="n">
         <v>39</v>
@@ -8081,7 +8081,7 @@
         <v>25</v>
       </c>
       <c r="CU21" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="CV21" t="n">
         <v>7</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="DA21" t="n">
         <v>10</v>
@@ -8114,10 +8114,10 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="DG21" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="DH21" t="n">
         <v>0</v>
@@ -8867,16 +8867,16 @@
         <v>96832</v>
       </c>
       <c r="E24" t="n">
-        <v>7.175</v>
+        <v>7.08</v>
       </c>
       <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
         <v>4</v>
       </c>
-      <c r="G24" t="n">
-        <v>3</v>
-      </c>
       <c r="H24" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -8931,10 +8931,10 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.00175306</v>
+        <v>0.0018442</v>
       </c>
       <c r="AB24" t="n">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -8943,16 +8943,16 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AF24" t="n">
-        <v>79.347826086957</v>
+        <v>81.034482758621</v>
       </c>
       <c r="AG24" t="n">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="AH24" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="n">
         <v>7</v>
@@ -8961,10 +8961,10 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL24" t="n">
-        <v>34.48275862069</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -8982,13 +8982,13 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AS24" t="n">
         <v>0</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>100</v>
       </c>
       <c r="BG24" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BH24" t="n">
         <v>0</v>
@@ -9045,10 +9045,10 @@
         <v>0</v>
       </c>
       <c r="BM24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BN24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO24" t="n">
         <v>2</v>
@@ -9057,16 +9057,16 @@
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>28.7</v>
+        <v>35.4</v>
       </c>
       <c r="BR24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
@@ -9093,10 +9093,10 @@
         <v>0</v>
       </c>
       <c r="CC24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CD24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -9111,7 +9111,7 @@
         <v>10</v>
       </c>
       <c r="CI24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CJ24" t="n">
         <v>2</v>
@@ -9123,10 +9123,10 @@
         <v>4</v>
       </c>
       <c r="CM24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CN24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO24" t="n">
         <v>3</v>
@@ -9162,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="DA24" t="n">
         <v>0</v>
@@ -9180,13 +9180,13 @@
         <v>3</v>
       </c>
       <c r="DF24" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="DG24" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="DH24" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
@@ -9200,7 +9200,7 @@
         </is>
       </c>
       <c r="DL24" t="n">
-        <v>1.5238</v>
+        <v>1.5912</v>
       </c>
     </row>
   </sheetData>

--- a/sofaplayer/Bundesliga/Bayer 04 Leverkusen_stats.xlsx
+++ b/sofaplayer/Bundesliga/Bayer 04 Leverkusen_stats.xlsx
@@ -1035,7 +1035,7 @@
         <v>2029648</v>
       </c>
       <c r="E2" t="n">
-        <v>6.7277777777778</v>
+        <v>6.7222222222222</v>
       </c>
       <c r="F2" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6827</v>
+        <v>3.7862</v>
       </c>
       <c r="L2" t="n">
         <v>244</v>
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.42254105</v>
+        <v>0.42111274</v>
       </c>
       <c r="AB2" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF2" t="n">
-        <v>84.955752212389</v>
+        <v>84.07079646017699</v>
       </c>
       <c r="AG2" t="n">
         <v>113</v>
@@ -1125,10 +1125,10 @@
         <v>30</v>
       </c>
       <c r="AI2" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>44.736842105263</v>
       </c>
       <c r="BG2" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BH2" t="n">
         <v>19</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>121.1</v>
+        <v>121</v>
       </c>
       <c r="BR2" t="n">
         <v>18</v>
@@ -1236,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="BT2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>280609</v>
       </c>
       <c r="E3" t="n">
-        <v>6.8647058823529</v>
+        <v>6.8705882352941</v>
       </c>
       <c r="F3" t="n">
         <v>17</v>
@@ -1472,10 +1472,10 @@
         <v>205</v>
       </c>
       <c r="AF3" t="n">
-        <v>79.457364341085</v>
+        <v>79.766536964981</v>
       </c>
       <c r="AG3" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH3" t="n">
         <v>74</v>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="AP3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ3" t="n">
         <v>6</v>
@@ -1535,16 +1535,16 @@
         <v>31.25</v>
       </c>
       <c r="BA3" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BB3" t="n">
-        <v>52.830188679245</v>
+        <v>53.271028037383</v>
       </c>
       <c r="BC3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD3" t="n">
-        <v>37.777777777778</v>
+        <v>39.130434782609</v>
       </c>
       <c r="BE3" t="n">
         <v>39</v>
@@ -1553,7 +1553,7 @@
         <v>63.934426229508</v>
       </c>
       <c r="BG3" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BH3" t="n">
         <v>11</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>116.7</v>
+        <v>116.8</v>
       </c>
       <c r="BR3" t="n">
         <v>17</v>
@@ -1592,7 +1592,7 @@
         <v>9</v>
       </c>
       <c r="BT3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="DB3" t="n">
-        <v>66.666666666667</v>
+        <v>50</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DG3" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.61113527</v>
+        <v>1.61113524</v>
       </c>
       <c r="AB4" t="n">
         <v>644</v>
@@ -2172,7 +2172,7 @@
         <v>0.63810878</v>
       </c>
       <c r="AB5" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AC5" t="n">
         <v>2</v>
@@ -2881,10 +2881,10 @@
         <v>2</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.36198085</v>
+        <v>1.36198075</v>
       </c>
       <c r="AB7" t="n">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AC7" t="n">
         <v>4</v>
@@ -3545,7 +3545,7 @@
         <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.0802</v>
+        <v>4.0733</v>
       </c>
       <c r="L9" t="n">
         <v>288.8</v>
@@ -3593,7 +3593,7 @@
         <v>5</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.745153</v>
+        <v>3.744844</v>
       </c>
       <c r="AB9" t="n">
         <v>1502</v>
@@ -3605,19 +3605,19 @@
         <v>33</v>
       </c>
       <c r="AE9" t="n">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AF9" t="n">
-        <v>87.795992714026</v>
+        <v>87.78486782133101</v>
       </c>
       <c r="AG9" t="n">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="AH9" t="n">
         <v>421</v>
       </c>
       <c r="AI9" t="n">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AJ9" t="n">
         <v>285</v>
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="AR9" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS9" t="n">
         <v>12</v>
@@ -3668,7 +3668,7 @@
         <v>16</v>
       </c>
       <c r="AZ9" t="n">
-        <v>34.782608695652</v>
+        <v>35.555555555556</v>
       </c>
       <c r="BA9" t="n">
         <v>68</v>
@@ -3752,7 +3752,7 @@
         <v>21</v>
       </c>
       <c r="CB9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CC9" t="n">
         <v>59</v>
@@ -3803,7 +3803,7 @@
         <v>33</v>
       </c>
       <c r="CS9" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CT9" t="n">
         <v>73</v>
@@ -3845,7 +3845,7 @@
         <v>469</v>
       </c>
       <c r="DG9" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.17539823</v>
+        <v>0.16340783</v>
       </c>
       <c r="AB10" t="n">
         <v>265</v>
@@ -3961,10 +3961,10 @@
         <v>2</v>
       </c>
       <c r="AE10" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF10" t="n">
-        <v>90.869565217391</v>
+        <v>90.434782608696</v>
       </c>
       <c r="AG10" t="n">
         <v>230</v>
@@ -3973,10 +3973,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK10" t="n">
         <v>3</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BH10" t="n">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="BT10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>6</v>
       </c>
       <c r="CD10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4595,7 +4595,7 @@
         <v>975798</v>
       </c>
       <c r="E12" t="n">
-        <v>7.0176470588235</v>
+        <v>7.0411764705882</v>
       </c>
       <c r="F12" t="n">
         <v>17</v>
@@ -4613,7 +4613,7 @@
         <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.6221</v>
+        <v>2.6507</v>
       </c>
       <c r="L12" t="n">
         <v>312</v>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>119.3</v>
+        <v>119.7</v>
       </c>
       <c r="BR12" t="n">
         <v>17</v>
@@ -4963,13 +4963,13 @@
         <v>1123</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
         <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.7279</v>
+        <v>2.7357</v>
       </c>
       <c r="L13" t="n">
         <v>224.6</v>
@@ -5032,10 +5032,10 @@
         <v>351</v>
       </c>
       <c r="AF13" t="n">
-        <v>84.578313253012</v>
+        <v>84.375</v>
       </c>
       <c r="AG13" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AH13" t="n">
         <v>91</v>
@@ -5152,7 +5152,7 @@
         <v>9</v>
       </c>
       <c r="BT13" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5269,7 +5269,7 @@
         <v>104</v>
       </c>
       <c r="DG13" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5373,10 +5373,10 @@
         <v>5</v>
       </c>
       <c r="AA14" t="n">
-        <v>4.00078381</v>
+        <v>4.00135481</v>
       </c>
       <c r="AB14" t="n">
-        <v>2355</v>
+        <v>2357</v>
       </c>
       <c r="AC14" t="n">
         <v>9</v>
@@ -5385,22 +5385,22 @@
         <v>32</v>
       </c>
       <c r="AE14" t="n">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="AF14" t="n">
-        <v>93.402942572378</v>
+        <v>93.406072106262</v>
       </c>
       <c r="AG14" t="n">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="AH14" t="n">
         <v>919</v>
       </c>
       <c r="AI14" t="n">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="AJ14" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AK14" t="n">
         <v>107</v>
@@ -5625,7 +5625,7 @@
         <v>965</v>
       </c>
       <c r="DG14" t="n">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5729,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.9878190100000001</v>
+        <v>0.98787781</v>
       </c>
       <c r="AB15" t="n">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -5741,16 +5741,16 @@
         <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="AF15" t="n">
-        <v>89.84098939929299</v>
+        <v>89.84995586937301</v>
       </c>
       <c r="AG15" t="n">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="AH15" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AI15" t="n">
         <v>454</v>
@@ -5891,7 +5891,7 @@
         <v>4</v>
       </c>
       <c r="CC15" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="CD15" t="n">
         <v>36</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="DG15" t="n">
         <v>534</v>
@@ -6375,7 +6375,7 @@
         <v>255239</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>7.0125</v>
       </c>
       <c r="F17" t="n">
         <v>8</v>
@@ -6441,7 +6441,7 @@
         <v>2</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.05740907</v>
+        <v>1.05735107</v>
       </c>
       <c r="AB17" t="n">
         <v>238</v>
@@ -6453,16 +6453,16 @@
         <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF17" t="n">
-        <v>86.754966887417</v>
+        <v>86.09271523178801</v>
       </c>
       <c r="AG17" t="n">
         <v>151</v>
       </c>
       <c r="AH17" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI17" t="n">
         <v>86</v>
@@ -6474,7 +6474,7 @@
         <v>2</v>
       </c>
       <c r="AL17" t="n">
-        <v>40</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AM17" t="n">
         <v>2</v>
@@ -6522,13 +6522,13 @@
         <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>54.545454545455</v>
+        <v>56.25</v>
       </c>
       <c r="BC17" t="n">
         <v>14</v>
       </c>
       <c r="BD17" t="n">
-        <v>51.851851851852</v>
+        <v>53.846153846154</v>
       </c>
       <c r="BE17" t="n">
         <v>4</v>
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="BR17" t="n">
         <v>8</v>
@@ -6576,7 +6576,7 @@
         <v>3</v>
       </c>
       <c r="BT17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6606,7 +6606,7 @@
         <v>6</v>
       </c>
       <c r="CD17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>5</v>
       </c>
       <c r="CU17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CV17" t="n">
         <v>2</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DA17" t="n">
         <v>4</v>
@@ -6690,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="DG17" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -6743,7 +6743,7 @@
         <v>1496</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
@@ -6797,7 +6797,7 @@
         <v>2</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.67841702</v>
+        <v>0.67841962</v>
       </c>
       <c r="AB18" t="n">
         <v>1744</v>
@@ -6878,7 +6878,7 @@
         <v>58</v>
       </c>
       <c r="BB18" t="n">
-        <v>62.365591397849</v>
+        <v>61.702127659574</v>
       </c>
       <c r="BC18" t="n">
         <v>23</v>
@@ -6890,7 +6890,7 @@
         <v>35</v>
       </c>
       <c r="BF18" t="n">
-        <v>64.81481481481499</v>
+        <v>63.636363636364</v>
       </c>
       <c r="BG18" t="n">
         <v>143</v>
@@ -6959,10 +6959,10 @@
         <v>0</v>
       </c>
       <c r="CC18" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CD18" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -7013,10 +7013,10 @@
         <v>6</v>
       </c>
       <c r="CU18" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CV18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7105,7 +7105,7 @@
         <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8133</v>
+        <v>0.865</v>
       </c>
       <c r="L19" t="n">
         <v>717.5</v>
@@ -7153,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.76336669</v>
+        <v>0.76336699</v>
       </c>
       <c r="AB19" t="n">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="AC19" t="n">
         <v>1</v>
@@ -7198,7 +7198,7 @@
         <v>16</v>
       </c>
       <c r="AP19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
         <v>2</v>
@@ -7231,16 +7231,16 @@
         <v>63.157894736842</v>
       </c>
       <c r="BA19" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="n">
-        <v>61.261261261261</v>
+        <v>60.909090909091</v>
       </c>
       <c r="BC19" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BD19" t="n">
-        <v>62.5</v>
+        <v>61.971830985915</v>
       </c>
       <c r="BE19" t="n">
         <v>23</v>
@@ -7249,7 +7249,7 @@
         <v>58.974358974359</v>
       </c>
       <c r="BG19" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="BH19" t="n">
         <v>12</v>
@@ -7387,10 +7387,10 @@
         <v>71</v>
       </c>
       <c r="DA19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="DB19" t="n">
-        <v>83.333333333333</v>
+        <v>82.35294117647101</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7865,7 +7865,7 @@
         <v>3</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.34201805</v>
+        <v>1.35296295</v>
       </c>
       <c r="AB21" t="n">
         <v>642</v>
@@ -8943,16 +8943,16 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF24" t="n">
-        <v>81.034482758621</v>
+        <v>81.19658119658099</v>
       </c>
       <c r="AG24" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AH24" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="n">
         <v>7</v>
@@ -9180,7 +9180,7 @@
         <v>3</v>
       </c>
       <c r="DF24" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="DG24" t="n">
         <v>22</v>
